--- a/class_schedules_spring_2018/GENDER, SEXUALITY, & FEMINIST STUDIES (GSFS).xlsx
+++ b/class_schedules_spring_2018/GENDER, SEXUALITY, & FEMINIST STUDIES (GSFS).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>100</t>
   </si>
@@ -124,76 +124,109 @@
     <t>S</t>
   </si>
   <si>
-    <t>Intro to Comparative Amer Stud MWF</t>
-  </si>
-  <si>
-    <t>Intro to GSFS TR</t>
-  </si>
-  <si>
-    <t>Latinas/os Comparative Perspec MWF</t>
-  </si>
-  <si>
-    <t>Abortion and Religion TR</t>
-  </si>
-  <si>
-    <t>Gender, Race &amp; War on Terror TR</t>
-  </si>
-  <si>
-    <t>Feminist Theory TR</t>
-  </si>
-  <si>
-    <t>Transnational Feminisms TR</t>
-  </si>
-  <si>
-    <t>Gender and Migration W</t>
-  </si>
-  <si>
-    <t>Sexual ?Absences? TR</t>
-  </si>
-  <si>
-    <t>Relg Gender Sexuality in India M</t>
-  </si>
-  <si>
-    <t>Queer Postwar New York &amp; Paris TR</t>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Intro to Comparative Amer Stud</t>
+  </si>
+  <si>
+    <t>Intro to GSFS</t>
+  </si>
+  <si>
+    <t>Latinas/os Comparative Perspec</t>
+  </si>
+  <si>
+    <t>Abortion and Religion</t>
+  </si>
+  <si>
+    <t>Gender, Race &amp; War on Terror</t>
+  </si>
+  <si>
+    <t>Feminist Theory</t>
+  </si>
+  <si>
+    <t>Transnational Feminisms</t>
+  </si>
+  <si>
+    <t>Gender and Migration</t>
+  </si>
+  <si>
+    <t>Sexual ?Absences?</t>
+  </si>
+  <si>
+    <t>Relg Gender Sexuality in India</t>
+  </si>
+  <si>
+    <t>Queer Postwar New York &amp; Paris</t>
   </si>
   <si>
     <t>Senior</t>
   </si>
   <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>0900-0950am</t>
-  </si>
-  <si>
-    <t>0130-0250pm</t>
-  </si>
-  <si>
-    <t>1000-1050am</t>
-  </si>
-  <si>
-    <t>0130-0245pm</t>
-  </si>
-  <si>
-    <t>0300-0415pm</t>
-  </si>
-  <si>
-    <t>0835-0950am</t>
-  </si>
-  <si>
-    <t>1100-1215pm</t>
-  </si>
-  <si>
-    <t>0230-0420pm</t>
-  </si>
-  <si>
-    <t>0930-1050am</t>
+    <t>Honors</t>
+  </si>
+  <si>
+    <t>Private Reading</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>0835</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0930</t>
   </si>
   <si>
     <t>Capstone</t>
   </si>
   <si>
-    <t>Honors</t>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>0950am</t>
+  </si>
+  <si>
+    <t>0250pm</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0245pm</t>
+  </si>
+  <si>
+    <t>0415pm</t>
+  </si>
+  <si>
+    <t>1215pm</t>
+  </si>
+  <si>
+    <t>0420pm</t>
   </si>
   <si>
     <t>Full</t>
@@ -214,7 +247,7 @@
     <t>PETE</t>
   </si>
   <si>
-    <t>TBA</t>
+    <t>Mattson Greggor</t>
   </si>
   <si>
     <t>123</t>
@@ -266,9 +299,6 @@
   </si>
   <si>
     <t>O'Connor Patrick</t>
-  </si>
-  <si>
-    <t>Mattson Greggor</t>
   </si>
 </sst>
 </file>
@@ -626,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -663,8 +693,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -687,19 +723,25 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,19 +764,25 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -754,22 +802,28 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -789,22 +843,28 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -824,22 +884,28 @@
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -859,22 +925,28 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -894,22 +966,28 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -929,22 +1007,28 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -964,22 +1048,28 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -999,22 +1089,28 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1034,22 +1130,28 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1068,23 +1170,23 @@
       <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1100,23 +1202,23 @@
       <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1135,23 +1237,23 @@
       <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
       <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1170,20 +1272,20 @@
       <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
